--- a/sydw/2020上/考点/经济.xlsx
+++ b/sydw/2020上/考点/经济.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社会主义市场经济体制" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="231">
+  <si>
+    <t>经济制度</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>法律确定的占统治地位的生产关系的总和。</t>
+  </si>
+  <si>
+    <t>它构成社会上层建筑赖以生存的经济基础</t>
+  </si>
+  <si>
+    <t>官方经济指导方向</t>
+  </si>
+  <si>
+    <t>规定者社会经济活动的总体方向和性质</t>
+  </si>
+  <si>
+    <t>我国经济制度</t>
+  </si>
+  <si>
+    <t>以公有制为主体，多种所有制共同发展。</t>
+  </si>
   <si>
     <t>经济体制</t>
   </si>
   <si>
-    <t>概念</t>
-  </si>
-  <si>
-    <t>是一中社会经济组织内部资源配置的机制、方式、结构的总和，是对一定社会经济运行模式的概括。</t>
+    <t>资源配置的方式，是对一定社会经济运行模式的概括。</t>
   </si>
   <si>
     <t>区分的标志</t>
@@ -40,13 +61,25 @@
 (按资源配置)</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
     <t>计划经济体制</t>
   </si>
   <si>
     <t>依赖政府手段调控</t>
   </si>
   <si>
-    <t>极大限度的动员和集中资源实现某个目标</t>
+    <t>集中资源实现目标</t>
+  </si>
+  <si>
+    <t>缺乏竞争，资源配置率低</t>
   </si>
   <si>
     <t>市场经济体制</t>
@@ -58,9 +91,57 @@
     <t>平等竞争，技术进步，制度创新，资源利用率高</t>
   </si>
   <si>
+    <t>自发性、盲目性、滞后性</t>
+  </si>
+  <si>
     <t>我国特色的经济体制</t>
   </si>
   <si>
+    <t>计划经济和市场经济仅是经济手段，经济运行的方式，不具有姓社姓资之分</t>
+  </si>
+  <si>
+    <t>自发性</t>
+  </si>
+  <si>
+    <t>损人利己</t>
+  </si>
+  <si>
+    <t>苏丹红事件，损害大众利益</t>
+  </si>
+  <si>
+    <t>市场经济缺点</t>
+  </si>
+  <si>
+    <t>盲目性</t>
+  </si>
+  <si>
+    <t>损己不害人</t>
+  </si>
+  <si>
+    <t>跟风种花生，导致花生降价</t>
+  </si>
+  <si>
+    <t>滞后性</t>
+  </si>
+  <si>
+    <t>造成一定资源浪费</t>
+  </si>
+  <si>
+    <t>经济制度和经济体制关系</t>
+  </si>
+  <si>
+    <t>1.经济制度是经济体制的基础</t>
+  </si>
+  <si>
+    <t>经济制度决定了经济体制</t>
+  </si>
+  <si>
+    <t>2.经济体制反应经济制度。</t>
+  </si>
+  <si>
+    <t>反馈让经济制度更加完善</t>
+  </si>
+  <si>
     <t>市场经济</t>
   </si>
   <si>
@@ -196,9 +277,6 @@
     <t>基本经济制度</t>
   </si>
   <si>
-    <t>以公有制为主体，多种所有制共同发展。</t>
-  </si>
-  <si>
     <t>公有制经济</t>
   </si>
   <si>
@@ -227,6 +305,411 @@
   </si>
   <si>
     <t>3.符合“三个有利于”的所有制形式都应该为社主义服务</t>
+  </si>
+  <si>
+    <t>经济学基础</t>
+  </si>
+  <si>
+    <t>经济学研究的基本问题是生产什么、生产多少、怎样生产、何时生产、为谁生产。</t>
+  </si>
+  <si>
+    <t>研究对象和内容</t>
+  </si>
+  <si>
+    <t>1.物品需求</t>
+  </si>
+  <si>
+    <t>物品：1.现成的，无限多的,无成本的。2.资源通过生产活动形成的</t>
+  </si>
+  <si>
+    <t>2.资源</t>
+  </si>
+  <si>
+    <t>资源：劳动力、土地、资本、企业家才能。</t>
+  </si>
+  <si>
+    <t>资源稀缺性</t>
+  </si>
+  <si>
+    <t>绝对稀缺</t>
+  </si>
+  <si>
+    <t>矿藏、森林、企业家才能等</t>
+  </si>
+  <si>
+    <t>3.选择</t>
+  </si>
+  <si>
+    <t>产什么，怎么产，什么时候产，等</t>
+  </si>
+  <si>
+    <t>相对稀缺</t>
+  </si>
+  <si>
+    <t>4.经济学的产生</t>
+  </si>
+  <si>
+    <t>让资源有效、充分利用，产生了经济学学科</t>
+  </si>
+  <si>
+    <t>5.微观经济学的研究对象及其基本假设</t>
+  </si>
+  <si>
+    <t>研究对象</t>
+  </si>
+  <si>
+    <t>个体经济单位</t>
+  </si>
+  <si>
+    <t>指单个消费者、生产者或单个市场</t>
+  </si>
+  <si>
+    <t>微观经济学的建立是以一定的假设条件作为前提的</t>
+  </si>
+  <si>
+    <t>基本前提</t>
+  </si>
+  <si>
+    <t>假设“合乎理性的人”</t>
+  </si>
+  <si>
+    <t>市场体系</t>
+  </si>
+  <si>
+    <t>市场体系是由多个相互关联的市场组织组成的有机整体。</t>
+  </si>
+  <si>
+    <t>三大支柱</t>
+  </si>
+  <si>
+    <t>商品市场</t>
+  </si>
+  <si>
+    <t>劳动市场</t>
+  </si>
+  <si>
+    <t>资本市场</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>1.统一性</t>
+  </si>
+  <si>
+    <t>一国内统一，不因行政等分割或封闭</t>
+  </si>
+  <si>
+    <t>2.开放性</t>
+  </si>
+  <si>
+    <t>与国际市场接轨</t>
+  </si>
+  <si>
+    <t>3.竞争性</t>
+  </si>
+  <si>
+    <t>平等竞争</t>
+  </si>
+  <si>
+    <t>4.有序性</t>
+  </si>
+  <si>
+    <t>遵法守规有序规范</t>
+  </si>
+  <si>
+    <t>市场主体</t>
+  </si>
+  <si>
+    <t>自然人、法人(企业)、营利机构、非营利机构、中介机构</t>
+  </si>
+  <si>
+    <t>企业是市场存在与发展的最主要的主体</t>
+  </si>
+  <si>
+    <t>现代市场经济基本要素</t>
+  </si>
+  <si>
+    <t>市场体制</t>
+  </si>
+  <si>
+    <t>宏观调控体系</t>
+  </si>
+  <si>
+    <t>现代企业制度</t>
+  </si>
+  <si>
+    <t>以企业法人制度为主体，以公司制为核心</t>
+  </si>
+  <si>
+    <t>以有限责任制度为条件</t>
+  </si>
+  <si>
+    <t>以公司法人治理结构为主体形态，</t>
+  </si>
+  <si>
+    <t>基本特征</t>
+  </si>
+  <si>
+    <t>以1.产权清晰、2.权责明确、3.政企分开、4.管理科学为基本特征</t>
+  </si>
+  <si>
+    <t>1.由出资人形成的独立的法人所有权，并取得法定的法人地位</t>
+  </si>
+  <si>
+    <t>2.投资者对企业债务承担有限责任</t>
+  </si>
+  <si>
+    <t>3.具有管理层级制的科层组织</t>
+  </si>
+  <si>
+    <t>4.经营管理走向职业化，并造就职业管理阶层</t>
+  </si>
+  <si>
+    <t>5.目标的转移。由利润最大化转为长期稳定发展中实现利润最大化</t>
+  </si>
+  <si>
+    <t>含括</t>
+  </si>
+  <si>
+    <t>现代企业产权制度</t>
+  </si>
+  <si>
+    <t>现代企业管理制度</t>
+  </si>
+  <si>
+    <t>现代企业组织制度</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>一人有限责任公司</t>
+  </si>
+  <si>
+    <t>计划生育政策</t>
+  </si>
+  <si>
+    <t>一个自然人只能投资成立一个一人公司</t>
+  </si>
+  <si>
+    <t>两个一个意思，就是一个人只能有一个一人公司</t>
+  </si>
+  <si>
+    <t>绝育政策</t>
+  </si>
+  <si>
+    <t>一人公司不能投资设立新的一人公司</t>
+  </si>
+  <si>
+    <t>有限责任公司</t>
+  </si>
+  <si>
+    <t>独财产、独责任、独名义</t>
+  </si>
+  <si>
+    <t>一个承担、三个不承担</t>
+  </si>
+  <si>
+    <t>股份公司</t>
+  </si>
+  <si>
+    <t>股东会</t>
+  </si>
+  <si>
+    <t>作决定，搞批准</t>
+  </si>
+  <si>
+    <t>决定公司的经营方针、投资计划</t>
+  </si>
+  <si>
+    <t>法人(公司整体)承担责任</t>
+  </si>
+  <si>
+    <t>董事会</t>
+  </si>
+  <si>
+    <t>执行股东会决定，制定方案，员工聘解报酬</t>
+  </si>
+  <si>
+    <t>决定公司的经营计划、投资方案</t>
+  </si>
+  <si>
+    <t>富人俱乐部</t>
+  </si>
+  <si>
+    <t>占股较多</t>
+  </si>
+  <si>
+    <t>员工不承担</t>
+  </si>
+  <si>
+    <t>监理会/监事</t>
+  </si>
+  <si>
+    <t>穷人俱乐部</t>
+  </si>
+  <si>
+    <t>占股较少</t>
+  </si>
+  <si>
+    <t>股东不承担</t>
+  </si>
+  <si>
+    <t>监事不得兼任董事和经理</t>
+  </si>
+  <si>
+    <t>法定代表人不承担</t>
+  </si>
+  <si>
+    <t>追求利益最大化是微观经济学对厂商目标的基本假设，也是理性经纪人的假定在生产和厂商理论中的具体化。</t>
+  </si>
+  <si>
+    <t>实现利润最大化是一个企业竞争生生存的基本准则</t>
+  </si>
+  <si>
+    <t>短期生产理论</t>
+  </si>
+  <si>
+    <t>生产要素报酬递减规律</t>
+  </si>
+  <si>
+    <t>技术水平一定，生产要素不变，连续增加某生产要素的投入量，达到某一点后，总产量的增加会减少，即产出增加的比列小于投入增加的比列。</t>
+  </si>
+  <si>
+    <t>边际收益递减规律</t>
+  </si>
+  <si>
+    <t>生产理论</t>
+  </si>
+  <si>
+    <t>1.一阶段，平均产量递增，边际产量大于平均产量。</t>
+  </si>
+  <si>
+    <t>2.二阶段，总产量以递减的幅度增加，知道达到最大值。</t>
+  </si>
+  <si>
+    <t>3.三阶段，总产量递减和边际产量为负值</t>
+  </si>
+  <si>
+    <t>长期生产理论</t>
+  </si>
+  <si>
+    <t>以价格为核心的各种市场内在功能的总和</t>
+  </si>
+  <si>
+    <t>市场机制</t>
+  </si>
+  <si>
+    <t>供求机制</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>价格机制</t>
+  </si>
+  <si>
+    <t>核心</t>
+  </si>
+  <si>
+    <t>竞争机制</t>
+  </si>
+  <si>
+    <t>风险机制</t>
+  </si>
+  <si>
+    <t>经济体制改革</t>
+  </si>
+  <si>
+    <t>18届3中全会指出，经济体制改革是全面深化改革的终点</t>
+  </si>
+  <si>
+    <t>核心是处理好政府和市场的关系</t>
+  </si>
+  <si>
+    <t>使市场在资源配置中发挥决定性作用和更好发挥政府作用</t>
+  </si>
+  <si>
+    <t>18大3中全会</t>
+  </si>
+  <si>
+    <t>全篇深化改革</t>
+  </si>
+  <si>
+    <t>18大4中全会</t>
+  </si>
+  <si>
+    <t>全篇贯穿依法治国</t>
+  </si>
+  <si>
+    <t>市场类型</t>
+  </si>
+  <si>
+    <t>厂家数量</t>
+  </si>
+  <si>
+    <t>产品特点</t>
+  </si>
+  <si>
+    <t>典型</t>
+  </si>
+  <si>
+    <t>新厂商加入</t>
+  </si>
+  <si>
+    <t>完全垄断</t>
+  </si>
+  <si>
+    <t>一家</t>
+  </si>
+  <si>
+    <t>无可替代</t>
+  </si>
+  <si>
+    <t>华为5g</t>
+  </si>
+  <si>
+    <t>不可能</t>
+  </si>
+  <si>
+    <t>寡头垄断</t>
+  </si>
+  <si>
+    <t>几家</t>
+  </si>
+  <si>
+    <t>别无选择</t>
+  </si>
+  <si>
+    <t>电信/联通/移动</t>
+  </si>
+  <si>
+    <t>不易</t>
+  </si>
+  <si>
+    <t>垄断竞争</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>培训机构</t>
+  </si>
+  <si>
+    <t>较易</t>
+  </si>
+  <si>
+    <t>全国大培训机构仅两三家，但这两三家仅垄断了大多数的资源，但还是需要和小地方的小培训机构竞争抢资源</t>
+  </si>
+  <si>
+    <t>完全竞争</t>
+  </si>
+  <si>
+    <t>容易</t>
   </si>
 </sst>
 </file>
@@ -234,9 +717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -249,104 +732,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +770,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +828,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -408,187 +891,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,43 +1085,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +1119,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -682,11 +1148,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,151 +1171,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,11 +1338,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1180,10 +1663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:K35"/>
+  <dimension ref="D1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1199,386 +1682,504 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:6">
+    <row r="2" spans="4:10">
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:6">
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:10">
+    <row r="4" spans="4:6">
       <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10">
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:13">
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:13">
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:5">
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1" t="s">
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="D16" s="2"/>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:6">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
       <c r="D22" s="2"/>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="4:6">
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
+        <v>60</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="4:9">
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11">
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="4:11">
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="4:9">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9">
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="1" t="s">
-        <v>69</v>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="I46" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="I47" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="D7:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D35"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="F29:H32"/>
-    <mergeCell ref="F33:H35"/>
+  <mergeCells count="18">
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="D5:D15"/>
+    <mergeCell ref="D19:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D47"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="F41:H44"/>
+    <mergeCell ref="F45:H47"/>
+    <mergeCell ref="D16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1586,6 +2187,641 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:S70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="8.66666666666667" style="1"/>
+    <col min="3" max="3" width="14.4166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7">
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="5:14">
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13">
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9">
+      <c r="D69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C1:C8"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C39"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="F42:S43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1599,20 +2835,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/sydw/2020上/考点/经济.xlsx
+++ b/sydw/2020上/考点/经济.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="20175" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="社会主义市场经济体制" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="240">
   <si>
     <t>经济制度</t>
   </si>
@@ -710,6 +710,33 @@
   </si>
   <si>
     <t>容易</t>
+  </si>
+  <si>
+    <t>指吸收公众存款、发放贷款、办理结算等业务，并以利润为主要经营目标的金融机构。</t>
+  </si>
+  <si>
+    <t>1.存款业务。这个是基础业务</t>
+  </si>
+  <si>
+    <t>商业银行</t>
+  </si>
+  <si>
+    <t>主要业务有三类</t>
+  </si>
+  <si>
+    <t>2.贷款业务。这个是利润主要来源</t>
+  </si>
+  <si>
+    <t>3.结算业务</t>
+  </si>
+  <si>
+    <t>正外部性？负外部性？？？</t>
+  </si>
+  <si>
+    <t>周期性行业</t>
+  </si>
+  <si>
+    <t>外汇储备</t>
   </si>
 </sst>
 </file>
@@ -718,9 +745,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -738,8 +765,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,17 +789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,6 +799,80 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,67 +887,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,25 +902,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -891,187 +918,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,49 +1112,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1148,17 +1142,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,6 +1168,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1182,16 +1185,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1200,133 +1227,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1669,7 +1696,7 @@
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
@@ -2189,13 +2216,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:S70"/>
+  <dimension ref="C1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="8.66666666666667" style="1"/>
     <col min="3" max="3" width="14.4166666666667" style="1" customWidth="1"/>
@@ -2392,14 +2419,12 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>142</v>
       </c>
@@ -2494,7 +2519,6 @@
     <row r="34" spans="3:7">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>159</v>
       </c>
@@ -2793,6 +2817,45 @@
       </c>
       <c r="H70" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2824,14 +2887,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
